--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>1.096344641382222</v>
+        <v>0.03329446086555556</v>
       </c>
       <c r="R2">
-        <v>9.867101772439998</v>
+        <v>0.29965014779</v>
       </c>
       <c r="S2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="T2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
         <v>0.9038266278999998</v>
       </c>
       <c r="R3">
-        <v>8.134439651099997</v>
+        <v>8.134439651099999</v>
       </c>
       <c r="S3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="T3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>0.8057413917333331</v>
+        <v>0.6686284413877777</v>
       </c>
       <c r="R4">
-        <v>7.251672525599998</v>
+        <v>6.017655972489999</v>
       </c>
       <c r="S4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="T4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
     </row>
   </sheetData>
